--- a/documents/debt.xlsx
+++ b/documents/debt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14955" windowHeight="7770"/>
@@ -11,14 +11,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="329">
   <si>
     <t>个案序列号</t>
   </si>
@@ -1167,15 +1166,83 @@
     <t>郑州宏吉路</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>委案日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范栋葳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期期数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑吉路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个案序列号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>担保人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,8 +1296,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1342,18 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1268,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,17 +1389,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1372,6 +1489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1406,6 +1524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1581,341 +1700,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.875" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1">
+    <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="13">
+        <v>42106</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>50000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="13">
+        <v>42075</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="8">
+      <c r="L2" s="8">
         <v>2000.51</v>
       </c>
-      <c r="I2" s="8">
+      <c r="M2" s="8">
         <v>1500</v>
       </c>
-      <c r="J2" s="8">
+      <c r="N2" s="8">
         <v>200.3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="O2" s="8">
         <v>0.21</v>
       </c>
-      <c r="L2" s="8">
+      <c r="P2" s="8">
         <v>300</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="Q2" s="8">
         <v>1000</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="V2" s="3">
+      <c r="Y2" s="3">
         <v>18728491778</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AY2" s="3">
         <v>14438162233</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BB2" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BE2" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -1927,24 +2075,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DS35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="14" max="14" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:123">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:123">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:123">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>339830</v>
       </c>
@@ -2350,12 +2498,12 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="3"/>
     </row>
-    <row r="7" spans="1:123">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:123">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:123">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11029</v>
       </c>
@@ -2860,12 +3008,12 @@
       <c r="DN9" s="3"/>
       <c r="DO9" s="3"/>
     </row>
-    <row r="12" spans="1:123">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:123" ht="16.5" customHeight="1">
+    <row r="13" spans="1:123" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:123">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>283254</v>
       </c>
@@ -3273,12 +3421,12 @@
       <c r="BY14" s="3"/>
       <c r="BZ14" s="3"/>
     </row>
-    <row r="17" spans="1:123">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:123">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:123">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>289</v>
       </c>
@@ -3720,7 +3868,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:123">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:123">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3760,7 +3908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:123">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3780,7 +3928,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:123">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -3800,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:123">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -3820,7 +3968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:123">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
@@ -3840,7 +3988,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:123">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +4005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:123">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -3874,7 +4022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -3888,7 +4036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
@@ -3896,7 +4044,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3909,21 +4057,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +4079,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3939,12 +4087,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3952,7 +4100,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -3960,7 +4108,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>290</v>
       </c>
@@ -3968,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3979,7 +4127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4135,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3998,7 +4146,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>275</v>
       </c>
@@ -4009,17 +4157,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
@@ -4027,7 +4175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -4035,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4043,7 +4191,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
@@ -4051,7 +4199,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
@@ -4059,7 +4207,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
@@ -4070,7 +4218,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -4078,7 +4226,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4086,7 +4234,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -4095,167 +4243,167 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>280</v>
       </c>
@@ -4268,27 +4416,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/debt.xlsx
+++ b/documents/debt.xlsx
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
